--- a/data/input_mail/mail_copy_in_format.xlsx
+++ b/data/input_mail/mail_copy_in_format.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="27750" windowHeight="11770" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="27750" windowHeight="11770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ELMONGY" sheetId="1" r:id="rId1"/>
     <sheet name="YOUSEF" sheetId="2" r:id="rId2"/>
     <sheet name="YOUSEF_MUL" sheetId="10" r:id="rId3"/>
     <sheet name="ELFEKY_MUL" sheetId="3" r:id="rId4"/>
-    <sheet name="AHMED_MUL" sheetId="4" r:id="rId5"/>
+    <sheet name="AHMED_MUL" sheetId="13" r:id="rId5"/>
     <sheet name="SAM" sheetId="9" r:id="rId6"/>
     <sheet name="SAM_MUL" sheetId="5" r:id="rId7"/>
     <sheet name="MIZIOUT" sheetId="6" r:id="rId8"/>
@@ -1272,251 +1272,251 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AVANTE 2008 KMHDU41BP8U381712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: DOAA FAYEZ ABD ALLAH ELSAYED ABD ALLAH </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: EMAN ELSAIED MOHY MAKARM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: AADAWY SAYED AADAWY MOUSTAFA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDH41DBBU027867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD MOHAMED ABD ELAAZIEM ABD ALLAH </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDG41DBBU057026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: NAYROUZ ELSAYED MAMDOUH ELSAYED AHMED HASSANIEN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2012 KMHDH41DBCU299247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: GOUNIOR GERGES ESHAQ NASSIEF AWAD </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIVOLI 2015 KPBXHAR1FP019286</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD MAHMOUD HAGAG TOUNY MOHAMED </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2008 KMHDU41BP8U425062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: ELBAHSAMOUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: REHAM AHMED MOUKHTAR MOHAMED ABD ELKAREEM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2012 KMHDH41DBCU413802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: NERMEEN FAWZY MOHAMED LOTFY ABD ELHAMIED </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDH41DBBU034065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD ELSAYED YOUNIES SALEM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2010 KMHDU41BBAU045284</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: AHMED FATHY FAYEZ ELSAYED MOUSTAFA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3 2015 KNAFK412BFA326344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: SALAH SALAMAH MOHAMED ELSAYED ALI YOUSSEF </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2012 KMHDH41DBCU401649</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: NABIELA MOHAMED MOHAMED EBRAHIM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2012 KMHDH41DBCU617457</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MOHAMED MOHAMED MORSY ELSHAZLY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2012 KMHDG41DBCU272606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: ABD ELHAY ABD ELRAZEK QENAWY KAFAFY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUCSON 2019 KMHJ3812GKU815210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: ROUDINA NASSER MAHROUS AMOUBARK ESMAIL </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORTE 2011 KNAFU415BBA933829</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: KAREEM HEMDAN GHARABAWY OMAR ELGHARABAWY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2010 KMHDU41BBAU907475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: ADEL YOUSSEF MOHAMED TOURKY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDG41DBBU024372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: AHMED MOHAMED ELAAWADY ABD ELAAL </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3 2013 KNAFZ412BDA004986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: WALAA GAMIEL FATHY SEDIEK </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2007 KMHDU41BP7U121931</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: ODAY MOHAMED ABD ELAATY MOHAMED MEKAWY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2010 KMHDU41BBAU074145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MOSALAM AHMED MAHMOUD ABD ALLAH EBRAHIM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORTE 2013 KNAFT415BDA685980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: HASSAN ELSAYED SABER ABD ELFATAH MOHAMED </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2012 KMHDH41DBCU275493</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: ASHRAF MOHAMED EBRAHIM NASSER </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIVOLI 2018 KPBXH3AR1JP231026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: RAWDA MOAHMED AAFIFY ELSAYED AAFIFY SALAMAH </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORTE 2009 KNAFH22139A064294</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: KHALED BAHGAT ABD ELGABER AMIEN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDG41DBBU166305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: EYAD ALAA SALEH ELSAYED METWALLY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2007 KMHDU41BP7U248439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: HASSAN SOLIMAN HASSAAN KHEDR </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2010 KMHDU41BBAU005624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MAGDA AABOUD HAMAAD BAKRY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDG41DBBU057458</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: ASMAA FATHY ADREES ABD ELMONAEM MOHAMED </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUCSON 2020 KMHJ5812GLU324020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2007 KMHDU41BP7U018874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">CONSIGNEE NAME: SHAABAN ELDESSOUKY MOHAMED WAHBA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2007 KMHDU41BP7U018874</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2008 KMHDU41BP8U381712</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: DOAA FAYEZ ABD ALLAH ELSAYED ABD ALLAH </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: EMAN ELSAIED MOHY MAKARM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: AADAWY SAYED AADAWY MOUSTAFA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDH41DBBU027867</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD MOHAMED ABD ELAAZIEM ABD ALLAH </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDG41DBBU057026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: NAYROUZ ELSAYED MAMDOUH ELSAYED AHMED HASSANIEN </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2012 KMHDH41DBCU299247</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: GOUNIOR GERGES ESHAQ NASSIEF AWAD </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIVOLI 2015 KPBXHAR1FP019286</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD MAHMOUD HAGAG TOUNY MOHAMED </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2008 KMHDU41BP8U425062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUILDING NAME: ELBAHSAMOUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: REHAM AHMED MOUKHTAR MOHAMED ABD ELKAREEM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2012 KMHDH41DBCU413802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: NERMEEN FAWZY MOHAMED LOTFY ABD ELHAMIED </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDH41DBBU034065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD ELSAYED YOUNIES SALEM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2010 KMHDU41BBAU045284</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: AHMED FATHY FAYEZ ELSAYED MOUSTAFA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3 2015 KNAFK412BFA326344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: SALAH SALAMAH MOHAMED ELSAYED ALI YOUSSEF </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2012 KMHDH41DBCU401649</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: NABIELA MOHAMED MOHAMED EBRAHIM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2012 KMHDH41DBCU617457</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MOHAMED MOHAMED MORSY ELSHAZLY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2012 KMHDG41DBCU272606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: ABD ELHAY ABD ELRAZEK QENAWY KAFAFY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TUCSON 2019 KMHJ3812GKU815210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: ROUDINA NASSER MAHROUS AMOUBARK ESMAIL </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORTE 2011 KNAFU415BBA933829</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: KAREEM HEMDAN GHARABAWY OMAR ELGHARABAWY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2010 KMHDU41BBAU907475</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: ADEL YOUSSEF MOHAMED TOURKY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDG41DBBU024372</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: AHMED MOHAMED ELAAWADY ABD ELAAL </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3 2013 KNAFZ412BDA004986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: WALAA GAMIEL FATHY SEDIEK </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2007 KMHDU41BP7U121931</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: ODAY MOHAMED ABD ELAATY MOHAMED MEKAWY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2010 KMHDU41BBAU074145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MOSALAM AHMED MAHMOUD ABD ALLAH EBRAHIM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORTE 2013 KNAFT415BDA685980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: HASSAN ELSAYED SABER ABD ELFATAH MOHAMED </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2012 KMHDH41DBCU275493</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: ASHRAF MOHAMED EBRAHIM NASSER </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIVOLI 2018 KPBXH3AR1JP231026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: RAWDA MOAHMED AAFIFY ELSAYED AAFIFY SALAMAH </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORTE 2009 KNAFH22139A064294</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: KHALED BAHGAT ABD ELGABER AMIEN </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDG41DBBU166305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: EYAD ALAA SALEH ELSAYED METWALLY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2007 KMHDU41BP7U248439</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: HASSAN SOLIMAN HASSAAN KHEDR </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2010 KMHDU41BBAU005624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MAGDA AABOUD HAMAAD BAKRY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDG41DBBU057458</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: ASMAA FATHY ADREES ABD ELMONAEM MOHAMED </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TUCSON 2020 KMHJ5812GLU324020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
@@ -2256,7 +2256,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
@@ -2316,12 +2316,12 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
@@ -2381,12 +2381,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
@@ -2446,12 +2446,12 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.45">
@@ -2511,12 +2511,12 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
@@ -2576,12 +2576,12 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.45">
@@ -2641,17 +2641,17 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.45">
@@ -2706,12 +2706,12 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.45">
@@ -2771,12 +2771,12 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.45">
@@ -2836,12 +2836,12 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
@@ -2901,12 +2901,12 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.45">
@@ -2966,12 +2966,12 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.45">
@@ -3031,12 +3031,12 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.45">
@@ -3096,12 +3096,12 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.45">
@@ -3161,12 +3161,12 @@
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.45">
@@ -3226,12 +3226,12 @@
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.45">
@@ -3291,12 +3291,12 @@
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.45">
@@ -3365,8 +3365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3753,14 +3753,14 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
@@ -3829,8 +3829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4442,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4688,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5614,7 +5614,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5622,8 +5621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5658,12 +5657,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
@@ -5723,12 +5722,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
@@ -5788,12 +5787,12 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
@@ -5853,12 +5852,12 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
@@ -5918,12 +5917,12 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
@@ -5983,12 +5982,12 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
@@ -6048,12 +6047,12 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.45">
@@ -6113,12 +6112,12 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.45">
@@ -6178,12 +6177,12 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.45">
@@ -6238,12 +6237,12 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.45">
@@ -6303,12 +6302,12 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.45">
@@ -6368,12 +6367,12 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.45">
@@ -6437,8 +6436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6691,7 +6690,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>

--- a/data/input_mail/mail_copy_in_format.xlsx
+++ b/data/input_mail/mail_copy_in_format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="27750" windowHeight="11770" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="27750" windowHeight="11770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ELMONGY" sheetId="1" r:id="rId1"/>
@@ -3365,8 +3365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4688,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5621,7 +5621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A194"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
+    <sheetView topLeftCell="A156" workbookViewId="0">
       <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>

--- a/data/input_mail/mail_copy_in_format.xlsx
+++ b/data/input_mail/mail_copy_in_format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="27750" windowHeight="11770" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="27750" windowHeight="11770" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ELMONGY" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="EGY_KOREA" sheetId="7" r:id="rId9"/>
     <sheet name="AL_AMAL" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1059,9 +1059,6 @@
     <t>ACID NO: 9992022070000032918</t>
   </si>
   <si>
-    <t>ACID NO: 9992022070000034542</t>
-  </si>
-  <si>
     <t>ACID NO: 9992022070000042040</t>
   </si>
   <si>
@@ -1312,10 +1309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIVOLI 2015 KPBXHAR1FP019286</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD MAHMOUD HAGAG TOUNY MOHAMED </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1517,6 +1510,14 @@
   </si>
   <si>
     <t xml:space="preserve">CONSIGNEE NAME: SHAABAN ELDESSOUKY MOHAMED WAHBA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIVOLI 2015 KPBXH3AR1FP019286</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACID NO: 999202070000034542</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2148,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A292"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E86" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2186,12 +2187,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
@@ -2251,12 +2252,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
@@ -2316,12 +2317,12 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
@@ -2381,12 +2382,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
@@ -2446,12 +2447,12 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.45">
@@ -2511,12 +2512,12 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
@@ -2576,12 +2577,12 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.45">
@@ -2616,7 +2617,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>337</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
@@ -2641,17 +2642,17 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.45">
@@ -2681,7 +2682,7 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.45">
@@ -2706,12 +2707,12 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.45">
@@ -2746,7 +2747,7 @@
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.45">
@@ -2756,7 +2757,7 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.45">
@@ -2771,12 +2772,12 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.45">
@@ -2811,7 +2812,7 @@
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.45">
@@ -2821,7 +2822,7 @@
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.45">
@@ -2836,12 +2837,12 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
@@ -2876,7 +2877,7 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.45">
@@ -2886,7 +2887,7 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.45">
@@ -2901,12 +2902,12 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.45">
@@ -2941,7 +2942,7 @@
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.45">
@@ -2951,7 +2952,7 @@
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.45">
@@ -2966,12 +2967,12 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.45">
@@ -3006,7 +3007,7 @@
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.45">
@@ -3016,7 +3017,7 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.45">
@@ -3031,12 +3032,12 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.45">
@@ -3071,7 +3072,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.45">
@@ -3081,7 +3082,7 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.45">
@@ -3096,12 +3097,12 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.45">
@@ -3136,7 +3137,7 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.45">
@@ -3146,7 +3147,7 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.45">
@@ -3161,12 +3162,12 @@
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.45">
@@ -3196,12 +3197,12 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.45">
@@ -3226,12 +3227,12 @@
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.45">
@@ -3261,12 +3262,12 @@
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.45">
@@ -3291,12 +3292,12 @@
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.45">
@@ -3326,12 +3327,12 @@
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.45">
@@ -3365,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:A102"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3753,29 +3754,29 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.45">
@@ -3785,17 +3786,17 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
@@ -3805,7 +3806,7 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
@@ -5657,22 +5658,22 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
@@ -5687,17 +5688,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
@@ -5707,7 +5708,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
@@ -5722,22 +5723,22 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
@@ -5752,17 +5753,17 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
@@ -5772,7 +5773,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
@@ -5787,22 +5788,22 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
@@ -5817,17 +5818,17 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
@@ -5837,7 +5838,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
@@ -5852,22 +5853,22 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
@@ -5882,17 +5883,17 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.45">
@@ -5902,7 +5903,7 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.45">
@@ -5917,17 +5918,17 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.45">
@@ -5947,17 +5948,17 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
@@ -5967,7 +5968,7 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.45">
@@ -5982,22 +5983,22 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.45">
@@ -6012,17 +6013,17 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
@@ -6032,7 +6033,7 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
@@ -6047,27 +6048,27 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.45">
@@ -6077,17 +6078,17 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.45">
@@ -6097,7 +6098,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
@@ -6112,22 +6113,22 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.45">
@@ -6142,17 +6143,17 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.45">
@@ -6162,7 +6163,7 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.45">
@@ -6177,17 +6178,17 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.45">
@@ -6202,17 +6203,17 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.45">
@@ -6237,22 +6238,22 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.45">
@@ -6267,17 +6268,17 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.45">
@@ -6302,17 +6303,17 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.45">
@@ -6332,17 +6333,17 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.45">
@@ -6367,17 +6368,17 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.45">
@@ -6392,17 +6393,17 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.45">
@@ -6690,7 +6691,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6811,7 +6812,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">

--- a/data/input_mail/mail_copy_in_format.xlsx
+++ b/data/input_mail/mail_copy_in_format.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="27750" windowHeight="11770" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="27750" windowHeight="11770"/>
   </bookViews>
   <sheets>
-    <sheet name="ELMONGY" sheetId="1" r:id="rId1"/>
-    <sheet name="YOUSEF" sheetId="2" r:id="rId2"/>
-    <sheet name="YOUSEF_MUL" sheetId="10" r:id="rId3"/>
-    <sheet name="ELFEKY_MUL" sheetId="3" r:id="rId4"/>
-    <sheet name="AHMED_MUL" sheetId="13" r:id="rId5"/>
-    <sheet name="SAM" sheetId="9" r:id="rId6"/>
-    <sheet name="SAM_MUL" sheetId="5" r:id="rId7"/>
-    <sheet name="MIZIOUT" sheetId="6" r:id="rId8"/>
-    <sheet name="EGY_KOREA" sheetId="7" r:id="rId9"/>
-    <sheet name="AL_AMAL" sheetId="8" r:id="rId10"/>
+    <sheet name="AL_AMAL" sheetId="14" r:id="rId1"/>
+    <sheet name="ELMONGY" sheetId="1" r:id="rId2"/>
+    <sheet name="YOUSEF" sheetId="2" r:id="rId3"/>
+    <sheet name="YOUSEF_MUL" sheetId="15" r:id="rId4"/>
+    <sheet name="ELFEKY_MUL" sheetId="3" r:id="rId5"/>
+    <sheet name="AHMED_MUL" sheetId="13" r:id="rId6"/>
+    <sheet name="SAM" sheetId="9" r:id="rId7"/>
+    <sheet name="SAM_MUL" sheetId="5" r:id="rId8"/>
+    <sheet name="MIZIOUT" sheetId="6" r:id="rId9"/>
+    <sheet name="EGY_KOREA" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -228,6 +228,1181 @@
     <t>NOTIFY PARTY:</t>
   </si>
   <si>
+    <t>PORT SAID PUBLIC FREE ZONE</t>
+  </si>
+  <si>
+    <t>NOTIFY PARTY IN MASTER BILL OF LADING :</t>
+  </si>
+  <si>
+    <t>Our Company name “ Fairtrans “</t>
+  </si>
+  <si>
+    <t>Please add that sentences in description of good in master bill of lading as follow:</t>
+  </si>
+  <si>
+    <t>TEL: 0127763219 / 01282526981</t>
+  </si>
+  <si>
+    <t>EMAIL: SALES@INTERFOODEGYPT.COM</t>
+  </si>
+  <si>
+    <t>Egyptian Importer Vat Number : 204943167</t>
+  </si>
+  <si>
+    <t>Foreign Exporter Country: South Korea</t>
+  </si>
+  <si>
+    <t>Foreign Exporter Country Code: KR</t>
+  </si>
+  <si>
+    <t>Final destination : CARGO IN TRANSIT TO PORT SAID PUBLIC FREE ZONE</t>
+  </si>
+  <si>
+    <t>AVANTE</t>
+  </si>
+  <si>
+    <t>FORTE</t>
+  </si>
+  <si>
+    <t>SHIPPER NAME:</t>
+  </si>
+  <si>
+    <t>ELFEKY TRADING</t>
+  </si>
+  <si>
+    <t>SAMYOKSA – RO 380 BEON-GIL, NUM-MYUN</t>
+  </si>
+  <si>
+    <t>KYOUNQQIDO KOREA</t>
+  </si>
+  <si>
+    <t>REGISTRATION NO :127-86-58024</t>
+  </si>
+  <si>
+    <t>TEL:031-864-3043</t>
+  </si>
+  <si>
+    <t>FAX:031-684-3044</t>
+  </si>
+  <si>
+    <t>EMAIL:DLFDIR0208@HANMAIL.NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 UNITS OF USED CARS </t>
+  </si>
+  <si>
+    <t>UNITRADE COMPANY FOR TRADING</t>
+  </si>
+  <si>
+    <t>ID NO: 204-907-683</t>
+  </si>
+  <si>
+    <t>TEL: +20 1223706050</t>
+  </si>
+  <si>
+    <t>ACID NO: 2049076832022080087</t>
+  </si>
+  <si>
+    <t>Egyptian Importer Vat Number : 204907683</t>
+  </si>
+  <si>
+    <t>Foreign Exporter Registration Number: 1278658024</t>
+  </si>
+  <si>
+    <t>Final destination : CARGO IN TRANSIT TO PORT SAID PUBLIC FREE ZON</t>
+  </si>
+  <si>
+    <t>KMHDG41DBCU372355</t>
+  </si>
+  <si>
+    <t>KMHDG41DBBU079227</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>KNAFK412BFA430715</t>
+  </si>
+  <si>
+    <t>SOUL</t>
+  </si>
+  <si>
+    <t>KNAJU811BAK104332</t>
+  </si>
+  <si>
+    <t>KNAFW415BBA380984</t>
+  </si>
+  <si>
+    <t>KNAFU411BAA225708</t>
+  </si>
+  <si>
+    <t>KNAFT411BAA233766</t>
+  </si>
+  <si>
+    <t>KNAFU411BAA263508</t>
+  </si>
+  <si>
+    <t>KNAFH22139A070842</t>
+  </si>
+  <si>
+    <t>KMHDG41DBCU277583</t>
+  </si>
+  <si>
+    <t>SONGDO ISMAIL TRADING CO.LTD.</t>
+  </si>
+  <si>
+    <t>192, NEUNGHEODAE-RO, YEONSU-GU,INCHEON,</t>
+  </si>
+  <si>
+    <t>MIDO19826600@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>ID NO:3698600558</t>
+  </si>
+  <si>
+    <t>CONSIGNEE NAME :</t>
+  </si>
+  <si>
+    <t>Please add  that sentences in description of good in master bill of lading as follow:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 UNITS OF USED CARS </t>
+  </si>
+  <si>
+    <t>ACID NO: 2049431672022060010</t>
+  </si>
+  <si>
+    <t>Foreign Exporter Registration Number: 3698600558</t>
+  </si>
+  <si>
+    <t>ACID NO: 2049431672022060028</t>
+  </si>
+  <si>
+    <t>ACID NO: 2049431672022060317</t>
+  </si>
+  <si>
+    <t>ACID NO: 2049431672022060184</t>
+  </si>
+  <si>
+    <t>AVANTE MD</t>
+  </si>
+  <si>
+    <t>KMHDG41DBCU448663</t>
+  </si>
+  <si>
+    <t>AVANTE HD</t>
+  </si>
+  <si>
+    <t>KMHDU41BP7U302311</t>
+  </si>
+  <si>
+    <t>KNAFK412BDA011679</t>
+  </si>
+  <si>
+    <t>KMHDG41DBDU665209</t>
+  </si>
+  <si>
+    <t>KNAFU415BCA951875</t>
+  </si>
+  <si>
+    <t>KMHDU41BP9U794378</t>
+  </si>
+  <si>
+    <t>KMHDG41DBDU659662</t>
+  </si>
+  <si>
+    <t>KMHDU41BP7U206851</t>
+  </si>
+  <si>
+    <t>TRAX</t>
+  </si>
+  <si>
+    <t>KLABA76BDEB618876</t>
+  </si>
+  <si>
+    <t>KMHDG41DBBU081389</t>
+  </si>
+  <si>
+    <t>KMHDG41DBEU957867</t>
+  </si>
+  <si>
+    <t>KNAFU411BAA109369</t>
+  </si>
+  <si>
+    <t>KNAFU411BAA274461</t>
+  </si>
+  <si>
+    <t>KMHDH41DBEU915675</t>
+  </si>
+  <si>
+    <t>KNAFH22139A009419</t>
+  </si>
+  <si>
+    <t>KMHDG41DBEU883304</t>
+  </si>
+  <si>
+    <t>KNAFU411BAA114482</t>
+  </si>
+  <si>
+    <t>KMHDH41DBCU380456</t>
+  </si>
+  <si>
+    <t>KNAFK412BDA001138</t>
+  </si>
+  <si>
+    <t>KMHDG41DBCU576817</t>
+  </si>
+  <si>
+    <t>KNAJG55139K008326</t>
+  </si>
+  <si>
+    <t>KMHDU41BP7U115765</t>
+  </si>
+  <si>
+    <t>KNAFU411BAA168115</t>
+  </si>
+  <si>
+    <t>KNAFJ412BDA084886</t>
+  </si>
+  <si>
+    <t>KMHDG41DBCU189926</t>
+  </si>
+  <si>
+    <t>KLABA76BDDB193710</t>
+  </si>
+  <si>
+    <t>KMHDU41BBAU927969</t>
+  </si>
+  <si>
+    <t>KNAJU811BBK261679</t>
+  </si>
+  <si>
+    <t>KNAFU415BDA589495</t>
+  </si>
+  <si>
+    <t>KLABA76BDEB532223</t>
+  </si>
+  <si>
+    <t>KMHDU41BP7U038747</t>
+  </si>
+  <si>
+    <t>KMHDG41DBBU036841</t>
+  </si>
+  <si>
+    <t>CRUZE</t>
+  </si>
+  <si>
+    <t>KLAJA69EDAK663545</t>
+  </si>
+  <si>
+    <t>KNAJU815BCK443790</t>
+  </si>
+  <si>
+    <t>KNAJG55139K000733</t>
+  </si>
+  <si>
+    <t>KMHDU41BP7U144558</t>
+  </si>
+  <si>
+    <t>KMHDU41BP9U820568</t>
+  </si>
+  <si>
+    <t>KMHDU41BBAU162658</t>
+  </si>
+  <si>
+    <t>KMHDH41DBBU103111</t>
+  </si>
+  <si>
+    <t>KNAJT811BAK061623</t>
+  </si>
+  <si>
+    <t>KMHDU41BBAU910144</t>
+  </si>
+  <si>
+    <t>KNAFH22139A010109</t>
+  </si>
+  <si>
+    <t>KMHDU41BBAU853340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAM MOTORS </t>
+  </si>
+  <si>
+    <t>ID NO:4340401971</t>
+  </si>
+  <si>
+    <t>23, TTUKSEOM-RO 35-GIL. GWANGJIN-GU,</t>
+  </si>
+  <si>
+    <t>SEOUL , REPUBLIC OF KOREA</t>
+  </si>
+  <si>
+    <t>MOHAMED ALI ABASS SALEH ELBATOUT ( CRYSTAL ) &amp; CO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORT SAID PUBLIC FREE ZONEIN TRANSIT </t>
+  </si>
+  <si>
+    <t>TEL: +20 1270702227</t>
+  </si>
+  <si>
+    <t>ID NO: 303745827</t>
+  </si>
+  <si>
+    <t>ACID NO: 3037458272022070084</t>
+  </si>
+  <si>
+    <t>Egyptian Importer Vat Number : 303745827</t>
+  </si>
+  <si>
+    <t>Foreign Exporter Registration Number: 4340401971</t>
+  </si>
+  <si>
+    <t>KNAFH22139A016683</t>
+  </si>
+  <si>
+    <t>KNAFK412BGA947944</t>
+  </si>
+  <si>
+    <t>KNAFX412BDA022864</t>
+  </si>
+  <si>
+    <t>KMHDG41DBBU071361</t>
+  </si>
+  <si>
+    <t>KNAJU811BAK149449</t>
+  </si>
+  <si>
+    <t>KMHDU41BP8U560321</t>
+  </si>
+  <si>
+    <t>KNAFU411BAA263503</t>
+  </si>
+  <si>
+    <t>KMHDU41BP8U440438</t>
+  </si>
+  <si>
+    <t>KNAFX412BDA055742</t>
+  </si>
+  <si>
+    <t>KMHDH41DBDU624351</t>
+  </si>
+  <si>
+    <t>MIZIOUT</t>
+  </si>
+  <si>
+    <t>BUILDING NAME: ELNASARYAH</t>
+  </si>
+  <si>
+    <t>STREET: MARKAZ SAN ELHAGAR</t>
+  </si>
+  <si>
+    <t>ID: 28704041300542</t>
+  </si>
+  <si>
+    <t>TELEPHONE: +20 1018389616</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000040895</t>
+  </si>
+  <si>
+    <t>FREIGHT FORWARDER ID : 940403609</t>
+  </si>
+  <si>
+    <t>CIGSINPS2208F001</t>
+  </si>
+  <si>
+    <t>CIGSINPS2208F011</t>
+  </si>
+  <si>
+    <t>CIGSINPS2208F012</t>
+  </si>
+  <si>
+    <t>CIGSINPS2208F013</t>
+  </si>
+  <si>
+    <t>K3 2013 KNAFK412BDA050028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORTE 2009 KNAFH22139A050074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDG41DBBU137819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: SALEH AHMED MOHAMED SALEH </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: NABIELAH MAGDY AATTIA MOHAMED AATTIA HELAL </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2010 KMHDU41BBAU098545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: BASSIOUNY MOHAMED HAFEZ MOHAMED ELSHAFAAY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORTE 2009 KNAFH22139A014476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: REDA MAHMOUD SADEK MOUSTAFA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2016 KMHD741DBGU173749</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: AASEM MOHAMED ABD ELFATAH ABD ELRAHMAN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3 2013 KNAFK412BDA083247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: AAWAAD ABD ELAATY MOHAMED EBRAHIM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRAX 2016 KLABA76BDGB748116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MOHAMED SHAABAN KHALF HUSSIEN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MOHAMED BAHAG ELDIEN AHMED HUSSIEN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: SAMAAH AATTIA MAHMOUD ABD ELRAOUF </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERNATIONAL EGY KOREA CO.,LTD.</t>
+  </si>
+  <si>
+    <t>AHAMAD ABD ALSAMEA RESSLAN</t>
+  </si>
+  <si>
+    <t>SUNG-BONG-OA-RO-SEO-KU759</t>
+  </si>
+  <si>
+    <t>TAX ID NO: 7978700522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K3 2015 KNAFZ412BFA290008 </t>
+  </si>
+  <si>
+    <t>BUILDING NAME: ELAASAFRAH</t>
+  </si>
+  <si>
+    <t>STREET: MOHAMED FAKHR ELDIEN STREET</t>
+  </si>
+  <si>
+    <t>CITY: AWAL ELMONTAZAH</t>
+  </si>
+  <si>
+    <t>ID: 27701051805411</t>
+  </si>
+  <si>
+    <t>TEL:032-851-6607 // FAX:032-851-6608</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022060000072337</t>
+  </si>
+  <si>
+    <t>FREIGHT FORWARDER ID : 950455865</t>
+  </si>
+  <si>
+    <t>STREET: MARKAZ ELZAQAZIQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREET: EZBAT ABD ELRAHMAN ELSAYED </t>
+  </si>
+  <si>
+    <t>BUILDING: MARKAZ TAMIA</t>
+  </si>
+  <si>
+    <t>CITY: AL FAYUM</t>
+  </si>
+  <si>
+    <t>ID: 26901282300953</t>
+  </si>
+  <si>
+    <t>TELEPHONE: +20 1067464788</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000028923</t>
+  </si>
+  <si>
+    <t>FREIGHT FORWARDER ID : 950496286</t>
+  </si>
+  <si>
+    <t>BUILDING NAME: MENYAT ELMAKRM</t>
+  </si>
+  <si>
+    <t>STREET: FAKOUS</t>
+  </si>
+  <si>
+    <t>ID: 26805041301933</t>
+  </si>
+  <si>
+    <t>BUILDING NAME: ELHELMIA</t>
+  </si>
+  <si>
+    <t>STREET: ABOU HAMAD</t>
+  </si>
+  <si>
+    <t>ID: 29001010125303</t>
+  </si>
+  <si>
+    <t>BUILDING NAME: MARKAZ FAKOUS</t>
+  </si>
+  <si>
+    <t>STREET: ASHKOR</t>
+  </si>
+  <si>
+    <t>ID: 26910161302532</t>
+  </si>
+  <si>
+    <t>BUILDING NAME: MEGAWER 10</t>
+  </si>
+  <si>
+    <t>STREET: ELSALAHIA ELGADIEDA</t>
+  </si>
+  <si>
+    <t>ID: 31403031305719</t>
+  </si>
+  <si>
+    <t>BUILDING NAME: KAFR ABAZA</t>
+  </si>
+  <si>
+    <t>ID: 30703211302254</t>
+  </si>
+  <si>
+    <t>BUILDING NAME: SAWADA</t>
+  </si>
+  <si>
+    <t>STREET: MARKAZ FAKOUS</t>
+  </si>
+  <si>
+    <t>BUILDING NAME: ELSHAMOUT</t>
+  </si>
+  <si>
+    <t>STREET: MARKAZ BANHA</t>
+  </si>
+  <si>
+    <t>CITY: AL QALUBIYAH</t>
+  </si>
+  <si>
+    <t>ID: 28502021402258</t>
+  </si>
+  <si>
+    <t>TELEPHONE: +20 1000940356</t>
+  </si>
+  <si>
+    <t>BUILDING NAME: QARYAAT SWADA</t>
+  </si>
+  <si>
+    <t>STREET: MARKAZ ALMINYAH</t>
+  </si>
+  <si>
+    <t>ID: 29702222403239</t>
+  </si>
+  <si>
+    <t>BUILDING NAME: MARKAZ AWLAD SAKR</t>
+  </si>
+  <si>
+    <t>ID: 30811181303339</t>
+  </si>
+  <si>
+    <t>TELEPHONE: +20 1227666140</t>
+  </si>
+  <si>
+    <t>BUILDING NAME: ELNSR</t>
+  </si>
+  <si>
+    <t>ID: 28403061303017</t>
+  </si>
+  <si>
+    <t>BUILDING NAME: MEET HAML</t>
+  </si>
+  <si>
+    <t>ID: 28603031302465</t>
+  </si>
+  <si>
+    <t>ID: 30701201300609</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000061545</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000061487</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000061438</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000012315</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000000039</t>
+  </si>
+  <si>
+    <t>ID: 29101011363938</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000061552</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000030465</t>
+  </si>
+  <si>
+    <t>FREIGHT FORWARDER ID : 940415771</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000056585</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000006465</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000006473</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000006481</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000048111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: WALEED SAAD REZK ELMOLLA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDG41DBBU024372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: AHMED MOHAMED ELAAWADY ABD ELAAL </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3 2013 KNAFZ412BDA004986</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: WALAA GAMIEL FATHY SEDIEK </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2007 KMHDU41BP7U121931</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: ODAY MOHAMED ABD ELAATY MOHAMED MEKAWY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2010 KMHDU41BBAU074145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MOSALAM AHMED MAHMOUD ABD ALLAH EBRAHIM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORTE 2013 KNAFT415BDA685980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: HASSAN ELSAYED SABER ABD ELFATAH MOHAMED </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2012 KMHDH41DBCU275493</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: ASHRAF MOHAMED EBRAHIM NASSER </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIVOLI 2018 KPBXH3AR1JP231026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: RAWDA MOAHMED AAFIFY ELSAYED AAFIFY SALAMAH </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORTE 2009 KNAFH22139A064294</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: KHALED BAHGAT ABD ELGABER AMIEN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDG41DBBU166305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: EYAD ALAA SALEH ELSAYED METWALLY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2007 KMHDU41BP7U248439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: HASSAN SOLIMAN HASSAAN KHEDR </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2010 KMHDU41BBAU005624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MAGDA AABOUD HAMAAD BAKRY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDG41DBBU057458</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: ASMAA FATHY ADREES ABD ELMONAEM MOHAMED </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUCSON 2020 KMHJ5812GLU324020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2007 KMHDU41BP7U018874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: SHAABAN ELDESSOUKY MOHAMED WAHBA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL AMAL TRADING</t>
+  </si>
+  <si>
+    <t>KANGDUCK 1RO, SANGROK-GU , ANSANSI</t>
+  </si>
+  <si>
+    <t>KYEONGGI-DO , KOREA</t>
+  </si>
+  <si>
+    <t>TEL : +82-10-5681-7804</t>
+  </si>
+  <si>
+    <t>TAX ID NO: 6348801265</t>
+  </si>
+  <si>
+    <t>FORTE 2009 KNAFH22139A018976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: DOAA FAYEZ ABD ALLAH ELSAYED ABD ALLAH </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: NAHTAAI</t>
+  </si>
+  <si>
+    <t>STREET: MARKAZ ZEFTA</t>
+  </si>
+  <si>
+    <t>ID: 28806011609201</t>
+  </si>
+  <si>
+    <t>TELEPHONE: +20 1006993010</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000008496</t>
+  </si>
+  <si>
+    <t>AVANTE 2010 KMHDU41BBAU909420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: EMAN ELSAIED MOHY MAKARM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: MONSHAAT ELGENDY</t>
+  </si>
+  <si>
+    <t>STREET: MARKAZ TANTA</t>
+  </si>
+  <si>
+    <t>ID: 29306151600761</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000008470</t>
+  </si>
+  <si>
+    <t>AVANTE 2008 KMHDU41BP8U381712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: AADAWY SAYED AADAWY MOUSTAFA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BUILDING NAME: ELTERAA STREET </t>
+  </si>
+  <si>
+    <t>STREET: ARAB GHONIEM - HELWAN</t>
+  </si>
+  <si>
+    <t>CITY: CAIRO</t>
+  </si>
+  <si>
+    <t>ID: 28501062105512</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000013736</t>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDH41DBBU027867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD MOHAMED ABD ELAAZIEM ABD ALLAH </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: KASFREET</t>
+  </si>
+  <si>
+    <t>STREET: MARKAZ FAYED</t>
+  </si>
+  <si>
+    <t>CITY: AL ASMAILIAH</t>
+  </si>
+  <si>
+    <t>ID: 28401011905935</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000033353</t>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDG41DBBU057026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: NAYROUZ ELSAYED MAMDOUH ELSAYED AHMED HASSANIEN </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: SHOBRA NEBAAS</t>
+  </si>
+  <si>
+    <t>ID: 28402011604591</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000032819</t>
+  </si>
+  <si>
+    <t>AVANTE 2012 KMHDH41DBCU299247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: GOUNIOR GERGES ESHAQ NASSIEF AWAD </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: ELHARM</t>
+  </si>
+  <si>
+    <t>STREET: 39 ELHARM STREET – ABAS ANWAR - ELMARYOUTIAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITY: AL GIZA </t>
+  </si>
+  <si>
+    <t>ID: 28507081401236</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000032918</t>
+  </si>
+  <si>
+    <t>TIVOLI 2015 KPBXH3AR1FP019286</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD MAHMOUD HAGAG TOUNY MOHAMED </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: MARKAZ AHANASIA</t>
+  </si>
+  <si>
+    <t>STREET: QARYAAT MENHERO</t>
+  </si>
+  <si>
+    <t>CITY: BANI SUWAIEF</t>
+  </si>
+  <si>
+    <t>ID: 27302132102013</t>
+  </si>
+  <si>
+    <t>TELEPHONE: +20 1273562001</t>
+  </si>
+  <si>
+    <t>ACID NO: 999202070000034542</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVANTE 2008 KMHDU41BP8U425062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: REHAM AHMED MOUKHTAR MOHAMED ABD ELKAREEM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: ELBAHSAMOUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STREET: MARKAZ AHANASIA</t>
+  </si>
+  <si>
+    <t>ID: 28605202200952</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000042040</t>
+  </si>
+  <si>
+    <t>AVANTE 2012 KMHDH41DBCU413802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: NERMEEN FAWZY MOHAMED LOTFY ABD ELHAMIED </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: KAFR MOHAMED HUSSIEN</t>
+  </si>
+  <si>
+    <t>ID: 30308051302221</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000046017</t>
+  </si>
+  <si>
+    <t>FREIGHT FORWARDER ID : 950500798</t>
+  </si>
+  <si>
+    <t>AVANTE 2011 KMHDH41DBBU034065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD ELSAYED YOUNIES SALEM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BUILDING NAME: ELMANSHIAH ELGADIEDA </t>
+  </si>
+  <si>
+    <t>STREET: MARKAZ ELTAL ELKEBEER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITY: AL ASMAILIA </t>
+  </si>
+  <si>
+    <t>ID: 27706121900078</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000046090</t>
+  </si>
+  <si>
+    <t>AVANTE 2010 KMHDU41BBAU045284</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: AHMED FATHY FAYEZ ELSAYED MOUSTAFA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: ELQASASIEN</t>
+  </si>
+  <si>
+    <t>STREET: ELBAALWA ELSOGHRY</t>
+  </si>
+  <si>
+    <t>CITY: AL ASMAILIA</t>
+  </si>
+  <si>
+    <t>ID: 30602201901337</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000046157</t>
+  </si>
+  <si>
+    <t>K3 2015 KNAFK412BFA326344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: SALAH SALAMAH MOHAMED ELSAYED ALI YOUSSEF </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BUILDING NAME: 40 MOHAMED FAREED STREET </t>
+  </si>
+  <si>
+    <t>STREET: MARKAZ QUESSNA</t>
+  </si>
+  <si>
+    <t>CITY: AL MINUFIYAH</t>
+  </si>
+  <si>
+    <t>ID: 26203231700133</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000046009</t>
+  </si>
+  <si>
+    <t>AVANTE 2012 KMHDH41DBCU401649</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: NABIELA MOHAMED MOHAMED EBRAHIM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: MARKAZ ABOU KEBEER</t>
+  </si>
+  <si>
+    <t>STREET: ELQARAMOUS</t>
+  </si>
+  <si>
+    <t>ID: 26512311303227</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000046041</t>
+  </si>
+  <si>
+    <t>AVANTE 2012 KMHDH41DBCU617457</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: MOHAMED MOHAMED MORSY ELSHAZLY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: KAFR ELAAIES</t>
+  </si>
+  <si>
+    <t>STREET: MARKAZ KOUM HAMADA</t>
+  </si>
+  <si>
+    <t>CITY: AL BUHAYRAH</t>
+  </si>
+  <si>
+    <t>ID: 28902251801991</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022070000045944</t>
+  </si>
+  <si>
+    <t>AVANTE 2012 KMHDG41DBCU272606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: ABD ELHAY ABD ELRAZEK QENAWY KAFAFY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: KAFR MOSSAAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREET: MARKAZ AITAI ELBAROUD </t>
+  </si>
+  <si>
+    <t>ID: 26103021802478</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000100508</t>
+  </si>
+  <si>
+    <t>TUCSON 2019 KMHJ3812GKU815210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: ROUDINA NASSER MAHROUS AMOUBARK ESMAIL </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: MIDAN SEDE ABD ELREHEEM ELBAHRY  </t>
+  </si>
+  <si>
+    <t>STREET: QENA</t>
+  </si>
+  <si>
+    <t>ID: 27103242701351</t>
+  </si>
+  <si>
+    <t>TELEPHONE: +20 1094434621</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000012968</t>
+  </si>
+  <si>
+    <t>FORTE 2011 KNAFU415BBA933829</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: KAREEM HEMDAN GHARABAWY OMAR ELGHARABAWY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: QARYAAT ELHAMRAA</t>
+  </si>
+  <si>
+    <t>ID: 27707011502332</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000012794</t>
+  </si>
+  <si>
+    <t>AVANTE 2010 KMHDU41BBAU907475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNEE NAME: ADEL YOUSSEF MOHAMED TOURKY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUILDING NAME: KAFR ABOU ZEYADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREET: MARKAZ DESSOUK </t>
+  </si>
+  <si>
+    <t>ID: 25702191500678</t>
+  </si>
+  <si>
+    <t>ACID NO: 9992022080000013008</t>
+  </si>
+  <si>
     <t>OUR COMPANY NAME ( FAIRTRANS )</t>
   </si>
   <si>
@@ -237,6 +1412,39 @@
     <t xml:space="preserve">                                                              </t>
   </si>
   <si>
+    <t>KMHDN41BP5U117774</t>
+  </si>
+  <si>
+    <t>KMHDU41BBAU877171</t>
+  </si>
+  <si>
+    <t>KMHDT41BBAU006393</t>
+  </si>
+  <si>
+    <t>KNAFU411BAA205990</t>
+  </si>
+  <si>
+    <t>LACETTI</t>
+  </si>
+  <si>
+    <t>KLANA196D8K883858</t>
+  </si>
+  <si>
+    <t>KNAFW411BAA213426</t>
+  </si>
+  <si>
+    <t>KMHDG41DBBU026390</t>
+  </si>
+  <si>
+    <t>KMHDU41BBAU881713</t>
+  </si>
+  <si>
+    <t>ACID NO: 2049431672022080190</t>
+  </si>
+  <si>
+    <t>Foreign Exporter Registration Number: 1318660704</t>
+  </si>
+  <si>
     <t>Please add that sentences in description of goods in master bill of lading as follow:</t>
   </si>
   <si>
@@ -249,10 +1457,56 @@
     <t>4 UNITS OF USED CARS</t>
   </si>
   <si>
+    <t>KMHDU41BP9U725850</t>
+  </si>
+  <si>
+    <t>KNAFU411BAA142005</t>
+  </si>
+  <si>
+    <t>KMHDG41DBDU767573</t>
+  </si>
+  <si>
+    <t>KMHDU41BP7U039925</t>
+  </si>
+  <si>
+    <t>ACID NO: 2049431672022080158</t>
+  </si>
+  <si>
     <t>======================================</t>
   </si>
   <si>
-    <t>PORT SAID PUBLIC FREE ZONE</t>
+    <t>KMHDU41BP8U422808</t>
+  </si>
+  <si>
+    <t>KMHDG41DBCU354392</t>
+  </si>
+  <si>
+    <t>KMHDU41BP8U579337</t>
+  </si>
+  <si>
+    <t>KMHDG41DBCU267788</t>
+  </si>
+  <si>
+    <t>KMHDU41BP7U330453</t>
+  </si>
+  <si>
+    <t>I30</t>
+  </si>
+  <si>
+    <t>KMHDC51DP8U057380</t>
+  </si>
+  <si>
+    <t>KMHDU41BP7U319807</t>
+  </si>
+  <si>
+    <t>KMHDG41DBBU071805</t>
+  </si>
+  <si>
+    <t>TIBA INTERNATIONAL FOR READY-MADE CLOTHES / AMR MOHAMED ELNAKEEB HIS PARTNERS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEL: +20 1205744111</t>
   </si>
   <si>
     <t>EMAIL:SAMEH_KASSEM@YAHOO.COM</t>
@@ -261,1264 +1515,10 @@
     <t>ID NO: 204-945-933</t>
   </si>
   <si>
-    <t>NOTIFY PARTY IN MASTER BILL OF LADING :</t>
-  </si>
-  <si>
-    <t>Our Company name “ Fairtrans “</t>
-  </si>
-  <si>
-    <t>Please add that sentences in description of good in master bill of lading as follow:</t>
-  </si>
-  <si>
-    <t>TEL: 0127763219 / 01282526981</t>
-  </si>
-  <si>
-    <t>EMAIL: SALES@INTERFOODEGYPT.COM</t>
-  </si>
-  <si>
-    <t>ACID NO: 2049431672022080190</t>
-  </si>
-  <si>
-    <t>Egyptian Importer Vat Number : 204943167</t>
-  </si>
-  <si>
-    <t>Foreign Exporter Registration Number: 1318660704</t>
-  </si>
-  <si>
-    <t>Foreign Exporter Country: South Korea</t>
-  </si>
-  <si>
-    <t>Foreign Exporter Country Code: KR</t>
-  </si>
-  <si>
-    <t>ACID NO: 2049431672022080158</t>
-  </si>
-  <si>
-    <t>TEL: +20 1205744111</t>
-  </si>
-  <si>
     <t>ACID NO: 2049459332022080065</t>
   </si>
   <si>
     <t>Egyptian Importer Vat Number : 204945933</t>
-  </si>
-  <si>
-    <t>Final destination : CARGO IN TRANSIT TO PORT SAID PUBLIC FREE ZONE</t>
-  </si>
-  <si>
-    <t>AVANTE</t>
-  </si>
-  <si>
-    <t>KMHDU41BP8U422808</t>
-  </si>
-  <si>
-    <t>KMHDG41DBCU354392</t>
-  </si>
-  <si>
-    <t>KMHDU41BP8U579337</t>
-  </si>
-  <si>
-    <t>KMHDG41DBCU267788</t>
-  </si>
-  <si>
-    <t>KMHDU41BP7U330453</t>
-  </si>
-  <si>
-    <t>I30</t>
-  </si>
-  <si>
-    <t>KMHDC51DP8U057380</t>
-  </si>
-  <si>
-    <t>KMHDU41BP7U319807</t>
-  </si>
-  <si>
-    <t>KMHDG41DBBU071805</t>
-  </si>
-  <si>
-    <t>KMHDU41BP9U725850</t>
-  </si>
-  <si>
-    <t>FORTE</t>
-  </si>
-  <si>
-    <t>KNAFU411BAA142005</t>
-  </si>
-  <si>
-    <t>KMHDG41DBDU767573</t>
-  </si>
-  <si>
-    <t>KMHDU41BP7U039925</t>
-  </si>
-  <si>
-    <t>KMHDN41BP5U117774</t>
-  </si>
-  <si>
-    <t>KMHDU41BBAU877171</t>
-  </si>
-  <si>
-    <t>KMHDT41BBAU006393</t>
-  </si>
-  <si>
-    <t>KNAFU411BAA205990</t>
-  </si>
-  <si>
-    <t>LACETTI</t>
-  </si>
-  <si>
-    <t>KLANA196D8K883858</t>
-  </si>
-  <si>
-    <t>KNAFW411BAA213426</t>
-  </si>
-  <si>
-    <t>KMHDG41DBBU026390</t>
-  </si>
-  <si>
-    <t>KMHDU41BBAU881713</t>
-  </si>
-  <si>
-    <t>SHIPPER NAME:</t>
-  </si>
-  <si>
-    <t>ELFEKY TRADING</t>
-  </si>
-  <si>
-    <t>SAMYOKSA – RO 380 BEON-GIL, NUM-MYUN</t>
-  </si>
-  <si>
-    <t>KYOUNQQIDO KOREA</t>
-  </si>
-  <si>
-    <t>REGISTRATION NO :127-86-58024</t>
-  </si>
-  <si>
-    <t>TEL:031-864-3043</t>
-  </si>
-  <si>
-    <t>FAX:031-684-3044</t>
-  </si>
-  <si>
-    <t>EMAIL:DLFDIR0208@HANMAIL.NET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 UNITS OF USED CARS </t>
-  </si>
-  <si>
-    <t>UNITRADE COMPANY FOR TRADING</t>
-  </si>
-  <si>
-    <t>ID NO: 204-907-683</t>
-  </si>
-  <si>
-    <t>TEL: +20 1223706050</t>
-  </si>
-  <si>
-    <t>ACID NO: 2049076832022080087</t>
-  </si>
-  <si>
-    <t>Egyptian Importer Vat Number : 204907683</t>
-  </si>
-  <si>
-    <t>Foreign Exporter Registration Number: 1278658024</t>
-  </si>
-  <si>
-    <t>Final destination : CARGO IN TRANSIT TO PORT SAID PUBLIC FREE ZON</t>
-  </si>
-  <si>
-    <t>KMHDG41DBCU372355</t>
-  </si>
-  <si>
-    <t>KMHDG41DBBU079227</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>KNAFK412BFA430715</t>
-  </si>
-  <si>
-    <t>SOUL</t>
-  </si>
-  <si>
-    <t>KNAJU811BAK104332</t>
-  </si>
-  <si>
-    <t>KNAFW415BBA380984</t>
-  </si>
-  <si>
-    <t>KNAFU411BAA225708</t>
-  </si>
-  <si>
-    <t>KNAFT411BAA233766</t>
-  </si>
-  <si>
-    <t>KNAFU411BAA263508</t>
-  </si>
-  <si>
-    <t>KNAFH22139A070842</t>
-  </si>
-  <si>
-    <t>KMHDG41DBCU277583</t>
-  </si>
-  <si>
-    <t>SONGDO ISMAIL TRADING CO.LTD.</t>
-  </si>
-  <si>
-    <t>192, NEUNGHEODAE-RO, YEONSU-GU,INCHEON,</t>
-  </si>
-  <si>
-    <t>MIDO19826600@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>ID NO:3698600558</t>
-  </si>
-  <si>
-    <t>CONSIGNEE NAME :</t>
-  </si>
-  <si>
-    <t>Please add  that sentences in description of good in master bill of lading as follow:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 UNITS OF USED CARS </t>
-  </si>
-  <si>
-    <t>ACID NO: 2049431672022060010</t>
-  </si>
-  <si>
-    <t>Foreign Exporter Registration Number: 3698600558</t>
-  </si>
-  <si>
-    <t>ACID NO: 2049431672022060028</t>
-  </si>
-  <si>
-    <t>ACID NO: 2049431672022060317</t>
-  </si>
-  <si>
-    <t>ACID NO: 2049431672022060184</t>
-  </si>
-  <si>
-    <t>AVANTE MD</t>
-  </si>
-  <si>
-    <t>KMHDG41DBCU448663</t>
-  </si>
-  <si>
-    <t>AVANTE HD</t>
-  </si>
-  <si>
-    <t>KMHDU41BP7U302311</t>
-  </si>
-  <si>
-    <t>KNAFK412BDA011679</t>
-  </si>
-  <si>
-    <t>KMHDG41DBDU665209</t>
-  </si>
-  <si>
-    <t>KNAFU415BCA951875</t>
-  </si>
-  <si>
-    <t>KMHDU41BP9U794378</t>
-  </si>
-  <si>
-    <t>KMHDG41DBDU659662</t>
-  </si>
-  <si>
-    <t>KMHDU41BP7U206851</t>
-  </si>
-  <si>
-    <t>TRAX</t>
-  </si>
-  <si>
-    <t>KLABA76BDEB618876</t>
-  </si>
-  <si>
-    <t>KMHDG41DBBU081389</t>
-  </si>
-  <si>
-    <t>KMHDG41DBEU957867</t>
-  </si>
-  <si>
-    <t>KNAFU411BAA109369</t>
-  </si>
-  <si>
-    <t>KNAFU411BAA274461</t>
-  </si>
-  <si>
-    <t>KMHDH41DBEU915675</t>
-  </si>
-  <si>
-    <t>KNAFH22139A009419</t>
-  </si>
-  <si>
-    <t>KMHDG41DBEU883304</t>
-  </si>
-  <si>
-    <t>KNAFU411BAA114482</t>
-  </si>
-  <si>
-    <t>KMHDH41DBCU380456</t>
-  </si>
-  <si>
-    <t>KNAFK412BDA001138</t>
-  </si>
-  <si>
-    <t>KMHDG41DBCU576817</t>
-  </si>
-  <si>
-    <t>KNAJG55139K008326</t>
-  </si>
-  <si>
-    <t>KMHDU41BP7U115765</t>
-  </si>
-  <si>
-    <t>KNAFU411BAA168115</t>
-  </si>
-  <si>
-    <t>KNAFJ412BDA084886</t>
-  </si>
-  <si>
-    <t>KMHDG41DBCU189926</t>
-  </si>
-  <si>
-    <t>KLABA76BDDB193710</t>
-  </si>
-  <si>
-    <t>KMHDU41BBAU927969</t>
-  </si>
-  <si>
-    <t>KNAJU811BBK261679</t>
-  </si>
-  <si>
-    <t>KNAFU415BDA589495</t>
-  </si>
-  <si>
-    <t>KLABA76BDEB532223</t>
-  </si>
-  <si>
-    <t>KMHDU41BP7U038747</t>
-  </si>
-  <si>
-    <t>KMHDG41DBBU036841</t>
-  </si>
-  <si>
-    <t>CRUZE</t>
-  </si>
-  <si>
-    <t>KLAJA69EDAK663545</t>
-  </si>
-  <si>
-    <t>KNAJU815BCK443790</t>
-  </si>
-  <si>
-    <t>KNAJG55139K000733</t>
-  </si>
-  <si>
-    <t>KMHDU41BP7U144558</t>
-  </si>
-  <si>
-    <t>KMHDU41BP9U820568</t>
-  </si>
-  <si>
-    <t>KMHDU41BBAU162658</t>
-  </si>
-  <si>
-    <t>KMHDH41DBBU103111</t>
-  </si>
-  <si>
-    <t>KNAJT811BAK061623</t>
-  </si>
-  <si>
-    <t>KMHDU41BBAU910144</t>
-  </si>
-  <si>
-    <t>KNAFH22139A010109</t>
-  </si>
-  <si>
-    <t>KMHDU41BBAU853340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAM MOTORS </t>
-  </si>
-  <si>
-    <t>ID NO:4340401971</t>
-  </si>
-  <si>
-    <t>23, TTUKSEOM-RO 35-GIL. GWANGJIN-GU,</t>
-  </si>
-  <si>
-    <t>SEOUL , REPUBLIC OF KOREA</t>
-  </si>
-  <si>
-    <t>MOHAMED ALI ABASS SALEH ELBATOUT ( CRYSTAL ) &amp; CO.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORT SAID PUBLIC FREE ZONEIN TRANSIT </t>
-  </si>
-  <si>
-    <t>TEL: +20 1270702227</t>
-  </si>
-  <si>
-    <t>ID NO: 303745827</t>
-  </si>
-  <si>
-    <t>ACID NO: 3037458272022070084</t>
-  </si>
-  <si>
-    <t>Egyptian Importer Vat Number : 303745827</t>
-  </si>
-  <si>
-    <t>Foreign Exporter Registration Number: 4340401971</t>
-  </si>
-  <si>
-    <t>KNAFH22139A016683</t>
-  </si>
-  <si>
-    <t>KNAFK412BGA947944</t>
-  </si>
-  <si>
-    <t>KNAFX412BDA022864</t>
-  </si>
-  <si>
-    <t>KMHDG41DBBU071361</t>
-  </si>
-  <si>
-    <t>KNAJU811BAK149449</t>
-  </si>
-  <si>
-    <t>KMHDU41BP8U560321</t>
-  </si>
-  <si>
-    <t>KNAFU411BAA263503</t>
-  </si>
-  <si>
-    <t>KMHDU41BP8U440438</t>
-  </si>
-  <si>
-    <t>KNAFX412BDA055742</t>
-  </si>
-  <si>
-    <t>KMHDH41DBDU624351</t>
-  </si>
-  <si>
-    <t>MIZIOUT</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: ELNASARYAH</t>
-  </si>
-  <si>
-    <t>STREET: MARKAZ SAN ELHAGAR</t>
-  </si>
-  <si>
-    <t>ID: 28704041300542</t>
-  </si>
-  <si>
-    <t>TELEPHONE: +20 1018389616</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000040895</t>
-  </si>
-  <si>
-    <t>FREIGHT FORWARDER ID : 940403609</t>
-  </si>
-  <si>
-    <t>CIGSINPS2208F001</t>
-  </si>
-  <si>
-    <t>CIGSINPS2208F011</t>
-  </si>
-  <si>
-    <t>CIGSINPS2208F012</t>
-  </si>
-  <si>
-    <t>CIGSINPS2208F013</t>
-  </si>
-  <si>
-    <t>K3 2013 KNAFK412BDA050028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORTE 2009 KNAFH22139A050074</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDG41DBBU137819</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: SALEH AHMED MOHAMED SALEH </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: NABIELAH MAGDY AATTIA MOHAMED AATTIA HELAL </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2010 KMHDU41BBAU098545</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: BASSIOUNY MOHAMED HAFEZ MOHAMED ELSHAFAAY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORTE 2009 KNAFH22139A014476</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: REDA MAHMOUD SADEK MOUSTAFA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2016 KMHD741DBGU173749</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: AASEM MOHAMED ABD ELFATAH ABD ELRAHMAN </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3 2013 KNAFK412BDA083247</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: AAWAAD ABD ELAATY MOHAMED EBRAHIM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRAX 2016 KLABA76BDGB748116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MOHAMED SHAABAN KHALF HUSSIEN </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MOHAMED BAHAG ELDIEN AHMED HUSSIEN </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIBA INTERNATIONAL FOR READY-MADE CLOTHES / AMR MOHAMED ELNAKEEB HIS PARTNERS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: SAMAAH AATTIA MAHMOUD ABD ELRAOUF </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTERNATIONAL EGY KOREA CO.,LTD.</t>
-  </si>
-  <si>
-    <t>AHAMAD ABD ALSAMEA RESSLAN</t>
-  </si>
-  <si>
-    <t>SUNG-BONG-OA-RO-SEO-KU759</t>
-  </si>
-  <si>
-    <t>TAX ID NO: 7978700522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K3 2015 KNAFZ412BFA290008 </t>
-  </si>
-  <si>
-    <t>BUILDING NAME: ELAASAFRAH</t>
-  </si>
-  <si>
-    <t>STREET: MOHAMED FAKHR ELDIEN STREET</t>
-  </si>
-  <si>
-    <t>CITY: AWAL ELMONTAZAH</t>
-  </si>
-  <si>
-    <t>ID: 27701051805411</t>
-  </si>
-  <si>
-    <t>TEL:032-851-6607 // FAX:032-851-6608</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022060000072337</t>
-  </si>
-  <si>
-    <t>FREIGHT FORWARDER ID : 950455865</t>
-  </si>
-  <si>
-    <t>AL AMAL TRADING</t>
-  </si>
-  <si>
-    <t>KANGDUCK 1RO, SANGROK-GU , ANSANSI</t>
-  </si>
-  <si>
-    <t>KYEONGGI-DO , KOREA</t>
-  </si>
-  <si>
-    <t>TEL : +82-10-5681-7804</t>
-  </si>
-  <si>
-    <t>TAX ID NO: 6348801265</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: NAHTAAI</t>
-  </si>
-  <si>
-    <t>STREET: MARKAZ ZEFTA</t>
-  </si>
-  <si>
-    <t>ID: 28806011609201</t>
-  </si>
-  <si>
-    <t>TELEPHONE: +20 1006993010</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: MONSHAAT ELGENDY</t>
-  </si>
-  <si>
-    <t>STREET: MARKAZ TANTA</t>
-  </si>
-  <si>
-    <t>ID: 29306151600761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUILDING NAME: ELTERAA STREET </t>
-  </si>
-  <si>
-    <t>STREET: ARAB GHONIEM - HELWAN</t>
-  </si>
-  <si>
-    <t>CITY: CAIRO</t>
-  </si>
-  <si>
-    <t>ID: 28501062105512</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: KASFREET</t>
-  </si>
-  <si>
-    <t>STREET: MARKAZ FAYED</t>
-  </si>
-  <si>
-    <t>CITY: AL ASMAILIAH</t>
-  </si>
-  <si>
-    <t>ID: 28401011905935</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: SHOBRA NEBAAS</t>
-  </si>
-  <si>
-    <t>ID: 28402011604591</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: ELHARM</t>
-  </si>
-  <si>
-    <t>STREET: 39 ELHARM STREET – ABAS ANWAR - ELMARYOUTIAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITY: AL GIZA </t>
-  </si>
-  <si>
-    <t>ID: 28507081401236</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: MARKAZ AHANASIA</t>
-  </si>
-  <si>
-    <t>STREET: QARYAAT MENHERO</t>
-  </si>
-  <si>
-    <t>CITY: BANI SUWAIEF</t>
-  </si>
-  <si>
-    <t>ID: 27302132102013</t>
-  </si>
-  <si>
-    <t>TELEPHONE: +20 1273562001</t>
-  </si>
-  <si>
-    <t>STREET: MARKAZ AHANASIA</t>
-  </si>
-  <si>
-    <t>ID: 28605202200952</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: KAFR MOHAMED HUSSIEN</t>
-  </si>
-  <si>
-    <t>STREET: MARKAZ ELZAQAZIQ</t>
-  </si>
-  <si>
-    <t>ID: 30308051302221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUILDING NAME: ELMANSHIAH ELGADIEDA </t>
-  </si>
-  <si>
-    <t>STREET: MARKAZ ELTAL ELKEBEER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITY: AL ASMAILIA </t>
-  </si>
-  <si>
-    <t>ID: 27706121900078</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: ELQASASIEN</t>
-  </si>
-  <si>
-    <t>STREET: ELBAALWA ELSOGHRY</t>
-  </si>
-  <si>
-    <t>CITY: AL ASMAILIA</t>
-  </si>
-  <si>
-    <t>ID: 30602201901337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUILDING NAME: 40 MOHAMED FAREED STREET </t>
-  </si>
-  <si>
-    <t>STREET: MARKAZ QUESSNA</t>
-  </si>
-  <si>
-    <t>CITY: AL MINUFIYAH</t>
-  </si>
-  <si>
-    <t>ID: 26203231700133</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: MARKAZ ABOU KEBEER</t>
-  </si>
-  <si>
-    <t>STREET: ELQARAMOUS</t>
-  </si>
-  <si>
-    <t>ID: 26512311303227</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: KAFR ELAAIES</t>
-  </si>
-  <si>
-    <t>STREET: MARKAZ KOUM HAMADA</t>
-  </si>
-  <si>
-    <t>CITY: AL BUHAYRAH</t>
-  </si>
-  <si>
-    <t>ID: 28902251801991</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: KAFR MOSSAAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STREET: MARKAZ AITAI ELBAROUD </t>
-  </si>
-  <si>
-    <t>ID: 26103021802478</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: MIDAN SEDE ABD ELREHEEM ELBAHRY  </t>
-  </si>
-  <si>
-    <t>STREET: QENA</t>
-  </si>
-  <si>
-    <t>ID: 27103242701351</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: QARYAAT ELHAMRAA</t>
-  </si>
-  <si>
-    <t>ID: 27707011502332</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: KAFR ABOU ZEYADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STREET: MARKAZ DESSOUK </t>
-  </si>
-  <si>
-    <t>ID: 25702191500678</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000008496</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000008470</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000013736</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000033353</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000032819</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000032918</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000042040</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000046017</t>
-  </si>
-  <si>
-    <t>FREIGHT FORWARDER ID : 950500798</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000046090</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000046157</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000046009</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000046041</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000045944</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000100508</t>
-  </si>
-  <si>
-    <t>TELEPHONE: +20 1094434621</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000012968</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000012794</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000013008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STREET: EZBAT ABD ELRAHMAN ELSAYED </t>
-  </si>
-  <si>
-    <t>BUILDING: MARKAZ TAMIA</t>
-  </si>
-  <si>
-    <t>CITY: AL FAYUM</t>
-  </si>
-  <si>
-    <t>ID: 26901282300953</t>
-  </si>
-  <si>
-    <t>TELEPHONE: +20 1067464788</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000028923</t>
-  </si>
-  <si>
-    <t>FREIGHT FORWARDER ID : 950496286</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: MENYAT ELMAKRM</t>
-  </si>
-  <si>
-    <t>STREET: FAKOUS</t>
-  </si>
-  <si>
-    <t>ID: 26805041301933</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: ELHELMIA</t>
-  </si>
-  <si>
-    <t>STREET: ABOU HAMAD</t>
-  </si>
-  <si>
-    <t>ID: 29001010125303</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: MARKAZ FAKOUS</t>
-  </si>
-  <si>
-    <t>STREET: ASHKOR</t>
-  </si>
-  <si>
-    <t>ID: 26910161302532</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: MEGAWER 10</t>
-  </si>
-  <si>
-    <t>STREET: ELSALAHIA ELGADIEDA</t>
-  </si>
-  <si>
-    <t>ID: 31403031305719</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: KAFR ABAZA</t>
-  </si>
-  <si>
-    <t>ID: 30703211302254</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: SAWADA</t>
-  </si>
-  <si>
-    <t>STREET: MARKAZ FAKOUS</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: ELSHAMOUT</t>
-  </si>
-  <si>
-    <t>STREET: MARKAZ BANHA</t>
-  </si>
-  <si>
-    <t>CITY: AL QALUBIYAH</t>
-  </si>
-  <si>
-    <t>ID: 28502021402258</t>
-  </si>
-  <si>
-    <t>TELEPHONE: +20 1000940356</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: QARYAAT SWADA</t>
-  </si>
-  <si>
-    <t>STREET: MARKAZ ALMINYAH</t>
-  </si>
-  <si>
-    <t>ID: 29702222403239</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: MARKAZ AWLAD SAKR</t>
-  </si>
-  <si>
-    <t>ID: 30811181303339</t>
-  </si>
-  <si>
-    <t>TELEPHONE: +20 1227666140</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: ELNSR</t>
-  </si>
-  <si>
-    <t>ID: 28403061303017</t>
-  </si>
-  <si>
-    <t>BUILDING NAME: MEET HAML</t>
-  </si>
-  <si>
-    <t>ID: 28603031302465</t>
-  </si>
-  <si>
-    <t>ID: 30701201300609</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000061545</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000061487</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000061438</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000012315</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000000039</t>
-  </si>
-  <si>
-    <t>ID: 29101011363938</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022070000061552</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000030465</t>
-  </si>
-  <si>
-    <t>FREIGHT FORWARDER ID : 940415771</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000056585</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000006465</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000006473</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000006481</t>
-  </si>
-  <si>
-    <t>ACID NO: 9992022080000048111</t>
-  </si>
-  <si>
-    <t>FORTE 2009 KNAFH22139A018976</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2010 KMHDU41BBAU909420</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: WALEED SAAD REZK ELMOLLA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2008 KMHDU41BP8U381712</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: DOAA FAYEZ ABD ALLAH ELSAYED ABD ALLAH </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: EMAN ELSAIED MOHY MAKARM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: AADAWY SAYED AADAWY MOUSTAFA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDH41DBBU027867</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD MOHAMED ABD ELAAZIEM ABD ALLAH </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDG41DBBU057026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: NAYROUZ ELSAYED MAMDOUH ELSAYED AHMED HASSANIEN </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2012 KMHDH41DBCU299247</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: GOUNIOR GERGES ESHAQ NASSIEF AWAD </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD MAHMOUD HAGAG TOUNY MOHAMED </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2008 KMHDU41BP8U425062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUILDING NAME: ELBAHSAMOUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: REHAM AHMED MOUKHTAR MOHAMED ABD ELKAREEM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2012 KMHDH41DBCU413802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: NERMEEN FAWZY MOHAMED LOTFY ABD ELHAMIED </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDH41DBBU034065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MAHMOUD ELSAYED YOUNIES SALEM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2010 KMHDU41BBAU045284</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: AHMED FATHY FAYEZ ELSAYED MOUSTAFA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3 2015 KNAFK412BFA326344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: SALAH SALAMAH MOHAMED ELSAYED ALI YOUSSEF </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2012 KMHDH41DBCU401649</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: NABIELA MOHAMED MOHAMED EBRAHIM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2012 KMHDH41DBCU617457</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MOHAMED MOHAMED MORSY ELSHAZLY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2012 KMHDG41DBCU272606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: ABD ELHAY ABD ELRAZEK QENAWY KAFAFY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TUCSON 2019 KMHJ3812GKU815210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: ROUDINA NASSER MAHROUS AMOUBARK ESMAIL </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORTE 2011 KNAFU415BBA933829</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: KAREEM HEMDAN GHARABAWY OMAR ELGHARABAWY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2010 KMHDU41BBAU907475</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: ADEL YOUSSEF MOHAMED TOURKY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDG41DBBU024372</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: AHMED MOHAMED ELAAWADY ABD ELAAL </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3 2013 KNAFZ412BDA004986</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: WALAA GAMIEL FATHY SEDIEK </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2007 KMHDU41BP7U121931</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: ODAY MOHAMED ABD ELAATY MOHAMED MEKAWY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2010 KMHDU41BBAU074145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MOSALAM AHMED MAHMOUD ABD ALLAH EBRAHIM </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORTE 2013 KNAFT415BDA685980</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: HASSAN ELSAYED SABER ABD ELFATAH MOHAMED </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2012 KMHDH41DBCU275493</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: ASHRAF MOHAMED EBRAHIM NASSER </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIVOLI 2018 KPBXH3AR1JP231026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: RAWDA MOAHMED AAFIFY ELSAYED AAFIFY SALAMAH </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FORTE 2009 KNAFH22139A064294</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: KHALED BAHGAT ABD ELGABER AMIEN </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDG41DBBU166305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: EYAD ALAA SALEH ELSAYED METWALLY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2007 KMHDU41BP7U248439</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: HASSAN SOLIMAN HASSAAN KHEDR </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2010 KMHDU41BBAU005624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: MAGDA AABOUD HAMAAD BAKRY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2011 KMHDG41DBBU057458</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: ASMAA FATHY ADREES ABD ELMONAEM MOHAMED </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TUCSON 2020 KMHJ5812GLU324020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVANTE 2007 KMHDU41BP7U018874</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSIGNEE NAME: SHAABAN ELDESSOUKY MOHAMED WAHBA </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIVOLI 2015 KPBXH3AR1FP019286</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACID NO: 999202070000034542</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1899,7 +1899,1224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:A292"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="A279" sqref="A279:A292"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
@@ -1909,1450 +3126,99 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>238</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>242</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A292"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>21</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A140" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A149" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A152" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A182" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A183" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A184" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A187" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A188" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A189" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A190" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A192" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A193" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A195" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A196" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A197" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A198" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A199" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A201" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A202" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A203" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A204" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A205" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A207" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A208" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A210" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A211" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A212" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A213" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A214" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A217" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A218" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A219" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A220" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A221" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A222" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A223" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A224" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A226" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A227" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A228" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A229" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A230" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A233" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A234" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A235" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A236" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A237" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A238" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A239" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A240" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A242" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A243" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A244" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A245" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A246" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A249" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A250" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A251" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A252" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A253" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A254" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A255" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A256" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A258" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A259" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A260" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A261" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A262" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A264" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A265" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A266" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A267" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A268" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A269" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A270" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A271" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A273" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A274" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A275" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A276" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A277" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A279" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A280" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A281" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A282" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A283" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A284" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A285" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A286" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A288" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A289" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A290" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A291" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A292" t="s">
-        <v>24</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3364,10 +3230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3379,6 +3245,254 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3409,14 +3523,14 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -3476,14 +3590,14 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -3543,14 +3657,14 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -3605,14 +3719,14 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -3672,14 +3786,14 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -3754,29 +3868,29 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>465</v>
+        <v>306</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>466</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>350</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>351</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>352</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.45">
@@ -3786,17 +3900,17 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>353</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>355</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
@@ -3806,7 +3920,7 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
@@ -3826,12 +3940,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3893,12 +4007,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -3908,12 +4022,12 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>431</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3922,135 +4036,135 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>2005</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>2010</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B24">
         <v>2010</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B25">
         <v>2010</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>437</v>
       </c>
       <c r="B26">
         <v>2008</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B27">
         <v>2010</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>2011</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>2010</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
@@ -4110,12 +4224,12 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -4125,12 +4239,12 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>447</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4139,91 +4253,91 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>2009</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>2010</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B65">
         <v>2013</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B66">
         <v>2007</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>443</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -4263,7 +4377,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>67</v>
+        <v>431</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4272,90 +4386,90 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B90">
         <v>2008</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B91">
         <v>2012</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B92">
         <v>2008</v>
       </c>
       <c r="C92" t="s">
-        <v>95</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B93">
         <v>2012</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B94">
         <v>2007</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>459</v>
       </c>
       <c r="B95">
         <v>2008</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B96">
         <v>2007</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B97">
         <v>2011</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>462</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
@@ -4365,72 +4479,72 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>251</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>75</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>76</v>
+        <v>466</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>89</v>
+        <v>467</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>90</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>84</v>
+        <v>443</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4439,59 +4553,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4500,112 +4614,112 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <v>2012</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>2011</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>2015</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B15">
         <v>2010</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>2011</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <v>2010</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <v>2010</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B19">
         <v>2010</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>2009</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>2012</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -4615,22 +4729,22 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -4640,42 +4754,42 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4685,7 +4799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
@@ -4702,27 +4816,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
@@ -4742,178 +4856,178 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B21">
         <v>2012</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B22">
         <v>2007</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B23">
         <v>2013</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B24">
         <v>2013</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B25">
         <v>2012</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B26">
         <v>2009</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B27">
         <v>2013</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B28">
         <v>2007</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="B29">
         <v>2014</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B30">
         <v>2011</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
@@ -4923,27 +5037,27 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -4963,178 +5077,178 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B62">
         <v>2014</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B63">
         <v>2010</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>2010</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B65">
         <v>2014</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B66">
         <v>2009</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B67">
         <v>2014</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B68">
         <v>2010</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B69">
         <v>2012</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B70">
         <v>2013</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B71">
         <v>2012</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
@@ -5144,27 +5258,27 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
@@ -5184,211 +5298,211 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B103">
         <v>2007</v>
       </c>
       <c r="C103" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="G103" s="2"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B104">
         <v>2011</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B105">
         <v>2010</v>
       </c>
       <c r="C105" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B106">
         <v>2012</v>
       </c>
       <c r="C106" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B107">
         <v>2009</v>
       </c>
       <c r="C107" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B108">
         <v>2007</v>
       </c>
       <c r="C108" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B109">
         <v>2009</v>
       </c>
       <c r="C109" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B110">
         <v>2010</v>
       </c>
       <c r="C110" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B111">
         <v>2011</v>
       </c>
       <c r="C111" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B112">
         <v>2010</v>
       </c>
       <c r="C112" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B113">
         <v>2010</v>
       </c>
       <c r="C113" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B114">
         <v>2009</v>
       </c>
       <c r="C114" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B115">
         <v>2010</v>
       </c>
       <c r="C115" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
@@ -5398,27 +5512,27 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.45">
@@ -5438,178 +5552,178 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B147">
         <v>2009</v>
       </c>
       <c r="C147" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="G147" s="2"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B148">
         <v>2007</v>
       </c>
       <c r="C148" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B149">
         <v>2010</v>
       </c>
       <c r="C149" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B150">
         <v>2013</v>
       </c>
       <c r="C150" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B151">
         <v>2012</v>
       </c>
       <c r="C151" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="B152">
         <v>2013</v>
       </c>
       <c r="C152" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B153">
         <v>2010</v>
       </c>
       <c r="C153" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B154">
         <v>2011</v>
       </c>
       <c r="C154" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B155">
         <v>2013</v>
       </c>
       <c r="C155" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="B156">
         <v>2014</v>
       </c>
       <c r="C156" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5618,7 +5732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A194"/>
   <sheetViews>
@@ -5633,47 +5747,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
@@ -5688,17 +5802,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
@@ -5708,7 +5822,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
@@ -5723,22 +5837,22 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>442</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>443</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
@@ -5753,17 +5867,17 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>362</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
@@ -5773,7 +5887,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
@@ -5788,22 +5902,22 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>444</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>445</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>364</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
@@ -5818,17 +5932,17 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>365</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>391</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
@@ -5838,7 +5952,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
@@ -5853,22 +5967,22 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>446</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>447</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>366</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
@@ -5883,17 +5997,17 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>368</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>392</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.45">
@@ -5903,7 +6017,7 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.45">
@@ -5918,22 +6032,22 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>448</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>449</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>369</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.45">
@@ -5948,17 +6062,17 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>370</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>393</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
@@ -5968,7 +6082,7 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.45">
@@ -5983,22 +6097,22 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>450</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>451</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>371</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.45">
@@ -6013,17 +6127,17 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>394</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>395</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
@@ -6033,7 +6147,7 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
@@ -6048,27 +6162,27 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>452</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>453</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>373</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>374</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>375</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.45">
@@ -6078,17 +6192,17 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>376</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>377</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>396</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.45">
@@ -6098,7 +6212,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
@@ -6113,22 +6227,22 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>454</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>455</v>
+        <v>296</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.45">
@@ -6143,17 +6257,17 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>380</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>377</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>398</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.45">
@@ -6163,7 +6277,7 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>397</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.45">
@@ -6178,17 +6292,17 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>456</v>
+        <v>297</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>457</v>
+        <v>298</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>381</v>
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.45">
@@ -6203,17 +6317,17 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>382</v>
+        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>399</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.45">
@@ -6238,22 +6352,22 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>458</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>459</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>384</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.45">
@@ -6268,17 +6382,17 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>385</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>400</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.45">
@@ -6303,17 +6417,17 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>460</v>
+        <v>301</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>461</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>386</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.45">
@@ -6333,17 +6447,17 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>387</v>
+        <v>264</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>401</v>
+        <v>278</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.45">
@@ -6368,17 +6482,17 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>462</v>
+        <v>303</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>463</v>
+        <v>304</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>363</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.45">
@@ -6393,17 +6507,17 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>388</v>
+        <v>265</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>402</v>
+        <v>279</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.45">
@@ -6433,7 +6547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -6445,32 +6559,32 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6479,112 +6593,112 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>2009</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B11">
         <v>2016</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B12">
         <v>2013</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>2011</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B14">
         <v>2010</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>2008</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>2010</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>2008</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>2013</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>2013</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -6594,67 +6708,67 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6664,7 +6778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -6676,12 +6790,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -6691,24 +6805,24 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>305</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -6723,17 +6837,17 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -6743,7 +6857,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
@@ -6756,118 +6870,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>